--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -696,7 +696,7 @@
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.695425" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.615425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.295425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.235425" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="10.995425" style="0" customWidth="1"/>
   </x:cols>

--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -694,11 +694,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.355425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.285425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.955425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="8.620625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.595425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.015425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="13.955425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.555425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.415425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.235425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -694,11 +694,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.015425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="13.955425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.555425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.415425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.235425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.965425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.885425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.665425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.895425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="16.265425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -694,11 +694,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.965425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="15.885425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="16.665425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="13.895425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="16.265425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.965425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.885425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.665425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.450625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.265425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -694,11 +694,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.965425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.885425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.665425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.450625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.265425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.335425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.255425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.075425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.930625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.645425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -694,11 +694,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.335425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.255425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.075425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.930625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.645425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.811436" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.733194" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.495875" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.246332" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.098975" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -694,11 +694,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.695425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.615425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.295425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.585425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.505425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.155425" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.995425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.895425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -694,11 +694,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.585425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.505425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.155425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.895425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.705425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.575425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.235425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.220625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.975425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -705,10 +705,10 @@
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s"/>
-      <x:c r="D2" s="2" t="s"/>
-      <x:c r="E2" s="2" t="s"/>
-      <x:c r="F2" s="3" t="s"/>
+      <x:c r="C2" s="2"/>
+      <x:c r="D2" s="2"/>
+      <x:c r="E2" s="2"/>
+      <x:c r="F2" s="3"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="B3" s="4" t="s">
@@ -740,7 +740,7 @@
       <x:c r="E4" s="8">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F4" s="9" t="n">
+      <x:c r="F4" s="9">
         <x:v>2000</x:v>
       </x:c>
     </x:row>
@@ -757,7 +757,7 @@
       <x:c r="E5" s="8">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F5" s="9" t="n">
+      <x:c r="F5" s="9">
         <x:v>40000</x:v>
       </x:c>
     </x:row>
@@ -774,14 +774,14 @@
       <x:c r="E6" s="8">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F6" s="9" t="n">
+      <x:c r="F6" s="9">
         <x:v>10000</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
-      <x:c r="B7" s="10" t="s"/>
-      <x:c r="C7" s="11" t="s"/>
-      <x:c r="D7" s="11" t="s"/>
+      <x:c r="B7" s="10"/>
+      <x:c r="C7" s="11"/>
+      <x:c r="D7" s="11"/>
       <x:c r="E7" s="12" t="s">
         <x:v>12</x:v>
       </x:c>

--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Contacts</x:t>
   </x:si>
@@ -61,7 +61,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -289,7 +289,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -301,7 +301,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -342,7 +342,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -358,7 +358,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -694,11 +694,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.705425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.575425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.235425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.220625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.975425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.567768" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.139196" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.282054" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.996339" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -683,7 +683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/ShowCase.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Contacts" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Contacts" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
